--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl12</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H2">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I2">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J2">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06860853772263389</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N2">
-        <v>0.06860853772263389</v>
+        <v>0.207911</v>
       </c>
       <c r="O2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q2">
-        <v>1.482737699514178</v>
+        <v>0.044610215804</v>
       </c>
       <c r="R2">
-        <v>1.482737699514178</v>
+        <v>0.401491942236</v>
       </c>
       <c r="S2">
-        <v>0.0001070026881855148</v>
+        <v>1.923159471680924E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001070026881855148</v>
+        <v>1.92479259439069E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -596,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H3">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I3">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J3">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>94.3348072251292</v>
+        <v>0.311428</v>
       </c>
       <c r="N3">
-        <v>94.3348072251292</v>
+        <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.3680781998167726</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P3">
-        <v>0.3680781998167726</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q3">
-        <v>2038.722580192192</v>
+        <v>0.200463712176</v>
       </c>
       <c r="R3">
-        <v>2038.722580192192</v>
+        <v>1.804173409584</v>
       </c>
       <c r="S3">
-        <v>0.1471256828612034</v>
+        <v>8.642049356887995E-06</v>
       </c>
       <c r="T3">
-        <v>0.1471256828612034</v>
+        <v>8.64938807594457E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -658,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H4">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I4">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J4">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.750825565473</v>
+        <v>168.931335</v>
       </c>
       <c r="N4">
-        <v>161.750825565473</v>
+        <v>506.794005</v>
       </c>
       <c r="O4">
-        <v>0.6311239132649276</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P4">
-        <v>0.6311239132649276</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q4">
-        <v>3495.68807256983</v>
+        <v>108.73974888882</v>
       </c>
       <c r="R4">
-        <v>3495.68807256983</v>
+        <v>978.6577399993801</v>
       </c>
       <c r="S4">
-        <v>0.2522685036912262</v>
+        <v>0.004687802429437882</v>
       </c>
       <c r="T4">
-        <v>0.2522685036912262</v>
+        <v>0.004691783251995317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H5">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I5">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J5">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.135881998969694</v>
+        <v>206.345828</v>
       </c>
       <c r="N5">
-        <v>0.135881998969694</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O5">
-        <v>0.0005301881992392126</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P5">
-        <v>0.0005301881992392126</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q5">
-        <v>2.936622310363638</v>
+        <v>132.823158716976</v>
       </c>
       <c r="R5">
-        <v>2.936622310363638</v>
+        <v>1195.408428452784</v>
       </c>
       <c r="S5">
-        <v>0.0002119231752840865</v>
+        <v>0.005726045282260814</v>
       </c>
       <c r="T5">
-        <v>0.0002119231752840865</v>
+        <v>0.005730907767522858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>32.4561220854458</v>
+        <v>0.643692</v>
       </c>
       <c r="H6">
-        <v>32.4561220854458</v>
+        <v>1.931076</v>
       </c>
       <c r="I6">
-        <v>0.6002868875841008</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J6">
-        <v>0.6002868875841008</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06860853772263389</v>
+        <v>0.1471425</v>
       </c>
       <c r="N6">
-        <v>0.06860853772263389</v>
+        <v>0.294285</v>
       </c>
       <c r="O6">
-        <v>0.0002676987190607325</v>
+        <v>0.0003915394564941487</v>
       </c>
       <c r="P6">
-        <v>0.0002676987190607325</v>
+        <v>0.000261060376142028</v>
       </c>
       <c r="Q6">
-        <v>2.226767076429719</v>
+        <v>0.09471445011000001</v>
       </c>
       <c r="R6">
-        <v>2.226767076429719</v>
+        <v>0.5682867006600001</v>
       </c>
       <c r="S6">
-        <v>0.0001606960308752177</v>
+        <v>4.083167690432113E-06</v>
       </c>
       <c r="T6">
-        <v>0.0001606960308752177</v>
+        <v>2.724423376542194E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.4561220854458</v>
+        <v>26.62426633333333</v>
       </c>
       <c r="H7">
-        <v>32.4561220854458</v>
+        <v>79.87279899999999</v>
       </c>
       <c r="I7">
-        <v>0.6002868875841008</v>
+        <v>0.4313414759059188</v>
       </c>
       <c r="J7">
-        <v>0.6002868875841008</v>
+        <v>0.4316514220927074</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>94.3348072251292</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N7">
-        <v>94.3348072251292</v>
+        <v>0.207911</v>
       </c>
       <c r="O7">
-        <v>0.3680781998167726</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P7">
-        <v>0.3680781998167726</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q7">
-        <v>3061.742020205787</v>
+        <v>1.845159279209889</v>
       </c>
       <c r="R7">
-        <v>3061.742020205787</v>
+        <v>16.60643351288899</v>
       </c>
       <c r="S7">
-        <v>0.2209525169555691</v>
+        <v>7.954535705819789E-05</v>
       </c>
       <c r="T7">
-        <v>0.2209525169555691</v>
+        <v>7.961290596975783E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.4561220854458</v>
+        <v>26.62426633333333</v>
       </c>
       <c r="H8">
-        <v>32.4561220854458</v>
+        <v>79.87279899999999</v>
       </c>
       <c r="I8">
-        <v>0.6002868875841008</v>
+        <v>0.4313414759059188</v>
       </c>
       <c r="J8">
-        <v>0.6002868875841008</v>
+        <v>0.4316514220927074</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>161.750825565473</v>
+        <v>0.311428</v>
       </c>
       <c r="N8">
-        <v>161.750825565473</v>
+        <v>0.934284</v>
       </c>
       <c r="O8">
-        <v>0.6311239132649276</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P8">
-        <v>0.6311239132649276</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q8">
-        <v>5249.80454197464</v>
+        <v>8.291542015657331</v>
       </c>
       <c r="R8">
-        <v>5249.80454197464</v>
+        <v>74.62387814091599</v>
       </c>
       <c r="S8">
-        <v>0.3788554095737013</v>
+        <v>0.0003574508052664908</v>
       </c>
       <c r="T8">
-        <v>0.3788554095737013</v>
+        <v>0.0003577543479712436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,805 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H9">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J9">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>168.931335</v>
+      </c>
+      <c r="N9">
+        <v>506.794005</v>
+      </c>
+      <c r="O9">
+        <v>0.4495185489626108</v>
+      </c>
+      <c r="P9">
+        <v>0.4495772247033483</v>
+      </c>
+      <c r="Q9">
+        <v>4497.672855085554</v>
+      </c>
+      <c r="R9">
+        <v>40479.05569576999</v>
+      </c>
+      <c r="S9">
+        <v>0.1938959943566196</v>
+      </c>
+      <c r="T9">
+        <v>0.1940606483836929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H10">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J10">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>206.345828</v>
+      </c>
+      <c r="N10">
+        <v>619.0374839999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5490768020453307</v>
+      </c>
+      <c r="P10">
+        <v>0.5491484731435671</v>
+      </c>
+      <c r="Q10">
+        <v>5493.806281444189</v>
+      </c>
+      <c r="R10">
+        <v>49444.2565329977</v>
+      </c>
+      <c r="S10">
+        <v>0.236839598179935</v>
+      </c>
+      <c r="T10">
+        <v>0.2370407193724597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>32.4561220854458</v>
-      </c>
-      <c r="H9">
-        <v>32.4561220854458</v>
-      </c>
-      <c r="I9">
-        <v>0.6002868875841008</v>
-      </c>
-      <c r="J9">
-        <v>0.6002868875841008</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.135881998969694</v>
-      </c>
-      <c r="N9">
-        <v>0.135881998969694</v>
-      </c>
-      <c r="O9">
-        <v>0.0005301881992392126</v>
-      </c>
-      <c r="P9">
-        <v>0.0005301881992392126</v>
-      </c>
-      <c r="Q9">
-        <v>4.410202747774808</v>
-      </c>
-      <c r="R9">
-        <v>4.410202747774808</v>
-      </c>
-      <c r="S9">
-        <v>0.0003182650239551261</v>
-      </c>
-      <c r="T9">
-        <v>0.0003182650239551261</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H11">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J11">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1471425</v>
+      </c>
+      <c r="N11">
+        <v>0.294285</v>
+      </c>
+      <c r="O11">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P11">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q11">
+        <v>3.9175611089525</v>
+      </c>
+      <c r="R11">
+        <v>23.505366653715</v>
+      </c>
+      <c r="S11">
+        <v>0.0001688872070395874</v>
+      </c>
+      <c r="T11">
+        <v>0.0001126870826137635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>34.323415</v>
+      </c>
+      <c r="H12">
+        <v>102.970245</v>
+      </c>
+      <c r="I12">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J12">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.06930366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.207911</v>
+      </c>
+      <c r="O12">
+        <v>0.0001844138843618826</v>
+      </c>
+      <c r="P12">
+        <v>0.0001844379559408913</v>
+      </c>
+      <c r="Q12">
+        <v>2.378738512021667</v>
+      </c>
+      <c r="R12">
+        <v>21.408646608195</v>
+      </c>
+      <c r="S12">
+        <v>0.0001025481140944506</v>
+      </c>
+      <c r="T12">
+        <v>0.0001026351966564729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.323415</v>
+      </c>
+      <c r="H13">
+        <v>102.970245</v>
+      </c>
+      <c r="I13">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J13">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.311428</v>
+      </c>
+      <c r="N13">
+        <v>0.934284</v>
+      </c>
+      <c r="O13">
+        <v>0.000828695651202472</v>
+      </c>
+      <c r="P13">
+        <v>0.000828803821001677</v>
+      </c>
+      <c r="Q13">
+        <v>10.68927248662</v>
+      </c>
+      <c r="R13">
+        <v>96.20345237958</v>
+      </c>
+      <c r="S13">
+        <v>0.0004608176682745005</v>
+      </c>
+      <c r="T13">
+        <v>0.0004612089888125019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.323415</v>
+      </c>
+      <c r="H14">
+        <v>102.970245</v>
+      </c>
+      <c r="I14">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J14">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>168.931335</v>
+      </c>
+      <c r="N14">
+        <v>506.794005</v>
+      </c>
+      <c r="O14">
+        <v>0.4495185489626108</v>
+      </c>
+      <c r="P14">
+        <v>0.4495772247033483</v>
+      </c>
+      <c r="Q14">
+        <v>5798.300317709027</v>
+      </c>
+      <c r="R14">
+        <v>52184.70285938123</v>
+      </c>
+      <c r="S14">
+        <v>0.2499664252835279</v>
+      </c>
+      <c r="T14">
+        <v>0.2501786936116728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.323415</v>
+      </c>
+      <c r="H15">
+        <v>102.970245</v>
+      </c>
+      <c r="I15">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J15">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>206.345828</v>
+      </c>
+      <c r="N15">
+        <v>619.0374839999999</v>
+      </c>
+      <c r="O15">
+        <v>0.5490768020453307</v>
+      </c>
+      <c r="P15">
+        <v>0.5491484731435671</v>
+      </c>
+      <c r="Q15">
+        <v>7082.493487962621</v>
+      </c>
+      <c r="R15">
+        <v>63742.44139166357</v>
+      </c>
+      <c r="S15">
+        <v>0.3053283690520157</v>
+      </c>
+      <c r="T15">
+        <v>0.3055876500428941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.323415</v>
+      </c>
+      <c r="H16">
+        <v>102.970245</v>
+      </c>
+      <c r="I16">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J16">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1471425</v>
+      </c>
+      <c r="N16">
+        <v>0.294285</v>
+      </c>
+      <c r="O16">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P16">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q16">
+        <v>5.050433091637501</v>
+      </c>
+      <c r="R16">
+        <v>30.302598549825</v>
+      </c>
+      <c r="S16">
+        <v>0.0002177256500831033</v>
+      </c>
+      <c r="T16">
+        <v>0.0001452736933017018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.132963</v>
+      </c>
+      <c r="H17">
+        <v>0.265926</v>
+      </c>
+      <c r="I17">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J17">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.06930366666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.207911</v>
+      </c>
+      <c r="O17">
+        <v>0.0001844138843618826</v>
+      </c>
+      <c r="P17">
+        <v>0.0001844379559408913</v>
+      </c>
+      <c r="Q17">
+        <v>0.009214823431</v>
+      </c>
+      <c r="R17">
+        <v>0.05528894058599999</v>
+      </c>
+      <c r="S17">
+        <v>3.972537375532252E-07</v>
+      </c>
+      <c r="T17">
+        <v>2.650607202699109E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.132963</v>
+      </c>
+      <c r="H18">
+        <v>0.265926</v>
+      </c>
+      <c r="I18">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J18">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.311428</v>
+      </c>
+      <c r="N18">
+        <v>0.934284</v>
+      </c>
+      <c r="O18">
+        <v>0.000828695651202472</v>
+      </c>
+      <c r="P18">
+        <v>0.000828803821001677</v>
+      </c>
+      <c r="Q18">
+        <v>0.041408401164</v>
+      </c>
+      <c r="R18">
+        <v>0.248450406984</v>
+      </c>
+      <c r="S18">
+        <v>1.785128304592722E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.191096141986973E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.132963</v>
+      </c>
+      <c r="H19">
+        <v>0.265926</v>
+      </c>
+      <c r="I19">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J19">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>168.931335</v>
+      </c>
+      <c r="N19">
+        <v>506.794005</v>
+      </c>
+      <c r="O19">
+        <v>0.4495185489626108</v>
+      </c>
+      <c r="P19">
+        <v>0.4495772247033483</v>
+      </c>
+      <c r="Q19">
+        <v>22.461617095605</v>
+      </c>
+      <c r="R19">
+        <v>134.76970257363</v>
+      </c>
+      <c r="S19">
+        <v>0.0009683268930254672</v>
+      </c>
+      <c r="T19">
+        <v>0.0006460994559872872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.132963</v>
+      </c>
+      <c r="H20">
+        <v>0.265926</v>
+      </c>
+      <c r="I20">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J20">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>206.345828</v>
+      </c>
+      <c r="N20">
+        <v>619.0374839999999</v>
+      </c>
+      <c r="O20">
+        <v>0.5490768020453307</v>
+      </c>
+      <c r="P20">
+        <v>0.5491484731435671</v>
+      </c>
+      <c r="Q20">
+        <v>27.436360328364</v>
+      </c>
+      <c r="R20">
+        <v>164.618161970184</v>
+      </c>
+      <c r="S20">
+        <v>0.0011827895311193</v>
+      </c>
+      <c r="T20">
+        <v>0.0007891959606904564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.132963</v>
+      </c>
+      <c r="H21">
+        <v>0.265926</v>
+      </c>
+      <c r="I21">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J21">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1471425</v>
+      </c>
+      <c r="N21">
+        <v>0.294285</v>
+      </c>
+      <c r="O21">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P21">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q21">
+        <v>0.0195645082275</v>
+      </c>
+      <c r="R21">
+        <v>0.07825803291</v>
+      </c>
+      <c r="S21">
+        <v>8.434316810259019E-07</v>
+      </c>
+      <c r="T21">
+        <v>3.751768500205893E-07</v>
       </c>
     </row>
   </sheetData>
